--- a/Test_MinGW/Report/TestDesign.xlsx
+++ b/Test_MinGW/Report/TestDesign.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAPAcademy\TestDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\Test_MinGW\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DF155C-1F29-4F7A-9825-066AE53CC85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F71019-9473-4D97-9928-F74BBB930C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4CD87263-A6C7-4788-9066-0D8292F5B938}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{4CD87263-A6C7-4788-9066-0D8292F5B938}"/>
   </bookViews>
   <sheets>
     <sheet name="PORT" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="362">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -5658,7 +5658,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5692,6 +5692,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5905,13 +5911,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5922,8 +5928,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6308,410 +6314,450 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="27.6">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="27.6">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="27.6">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="27.6">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="26" t="s">
         <v>140</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="26" t="s">
         <v>145</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>149</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="26" t="s">
         <v>153</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="26" t="s">
         <v>157</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="F20:F22"/>
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="F26:F28"/>
@@ -6722,46 +6768,6 @@
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="F17:F19"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32:B34" xr:uid="{F595C05D-9374-497E-92C0-7634FD45107C}">
@@ -6811,16 +6817,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -6831,36 +6837,36 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="70.5" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="27"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -6871,36 +6877,36 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="70.5" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -6911,36 +6917,36 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="70.5" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -6951,36 +6957,36 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.6">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -6991,505 +6997,533 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.6">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="17" t="s">
         <v>62</v>
       </c>
       <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="27"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="27"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="31"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="27"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="31"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="31"/>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="27"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="31"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="27"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="31"/>
+      <c r="F40" s="27"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="27"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="31"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F43" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F44" s="31"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F46" s="31"/>
+      <c r="F46" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F10"/>
@@ -7506,62 +7540,34 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7609,411 +7615,411 @@
       <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.6">
       <c r="A3" s="32"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1">
       <c r="A4" s="32"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1">
       <c r="A5" s="32"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1">
       <c r="A6" s="32"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="41.25" customHeight="1">
       <c r="A7" s="32"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="42.75" customHeight="1">
       <c r="A8" s="32"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.6">
       <c r="A10" s="32"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1">
       <c r="A11" s="32"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1">
       <c r="A12" s="32"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1">
       <c r="A13" s="32"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="41.25" customHeight="1">
       <c r="A14" s="32"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" ht="42.75" customHeight="1">
       <c r="A15" s="32"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27.6">
       <c r="A17" s="32"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="31"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" ht="28.5" customHeight="1">
       <c r="A18" s="32"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1">
       <c r="A19" s="32"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" ht="28.5" customHeight="1">
       <c r="A20" s="32"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" ht="41.25" customHeight="1">
       <c r="A21" s="32"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F21" s="31"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" ht="42.75" customHeight="1">
       <c r="A22" s="32"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="27.6">
       <c r="A24" s="32"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="28.5" customHeight="1">
       <c r="A25" s="32"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="31"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" ht="28.5" customHeight="1">
       <c r="A26" s="32"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" ht="28.5" customHeight="1">
       <c r="A27" s="32"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="41.25" customHeight="1">
       <c r="A28" s="32"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="42.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="31"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" ht="27.6">
       <c r="A30" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="27.6">
       <c r="A31" s="32"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" ht="42.75" customHeight="1">
       <c r="A32" s="32"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F32" s="31"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" ht="27.6">
       <c r="A33" s="32"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F33" s="31"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="26" t="s">
         <v>180</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27.6">
       <c r="A35" s="32"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="31"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" ht="27.6">
       <c r="A36" s="32"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F36" s="31"/>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" ht="27.6">
       <c r="A37" s="5" t="s">
@@ -8097,6 +8103,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="D9:D15"/>
     <mergeCell ref="F23:F29"/>
     <mergeCell ref="F30:F33"/>
     <mergeCell ref="F34:F36"/>
@@ -8113,20 +8133,6 @@
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="D9:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8174,802 +8180,835 @@
       <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>196</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1">
       <c r="A3" s="32"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1">
       <c r="A4" s="32"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="27.6">
       <c r="A5" s="32"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="43.5" customHeight="1">
       <c r="A6" s="32"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="27.6">
       <c r="A7" s="32"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="27.6">
       <c r="A8" s="32"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1">
       <c r="A9" s="32"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>196</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1">
       <c r="A11" s="32"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="56.25" customHeight="1">
       <c r="A12" s="32"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" ht="27.6">
       <c r="A13" s="32"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="43.5" customHeight="1">
       <c r="A14" s="32"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" ht="27.6">
       <c r="A15" s="32"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="27.6">
       <c r="A16" s="32"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1">
       <c r="A17" s="32"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F17" s="31"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" ht="42" customHeight="1">
       <c r="A18" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="26" t="s">
         <v>217</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="27.6">
       <c r="A19" s="32"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="26" t="s">
         <v>200</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.5" customHeight="1">
       <c r="A21" s="32"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F21" s="31"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" ht="29.25" customHeight="1">
       <c r="A22" s="32"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" ht="27.6">
       <c r="A23" s="32"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" ht="43.5" customHeight="1">
       <c r="A24" s="32"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="57.75" customHeight="1">
       <c r="A25" s="32"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F25" s="31"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="26" t="s">
         <v>200</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.5" customHeight="1">
       <c r="A27" s="32"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="29.25" customHeight="1">
       <c r="A28" s="32"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="27.6">
       <c r="A29" s="32"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F29" s="31"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" ht="43.5" customHeight="1">
       <c r="A30" s="32"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" ht="41.4">
       <c r="A31" s="32"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" ht="42" customHeight="1">
       <c r="A32" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="26" t="s">
         <v>217</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="27.6">
       <c r="A33" s="32"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F33" s="31"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="26" t="s">
         <v>203</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42" customHeight="1">
       <c r="A35" s="32"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F35" s="31"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="32"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F36" s="31"/>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" ht="43.5" customHeight="1">
       <c r="A37" s="32"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="31"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="26" t="s">
         <v>203</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42" customHeight="1">
       <c r="A39" s="32"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F39" s="31"/>
+      <c r="F39" s="27"/>
     </row>
     <row r="40" spans="1:6" ht="29.25" customHeight="1">
       <c r="A40" s="32"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F40" s="31"/>
+      <c r="F40" s="27"/>
     </row>
     <row r="41" spans="1:6" ht="43.5" customHeight="1">
       <c r="A41" s="32"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="F41" s="31"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="1:6" ht="42" customHeight="1">
       <c r="A42" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="26" t="s">
         <v>217</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="27.6">
       <c r="A43" s="32"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F43" s="31"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="26" t="s">
         <v>233</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="27.6">
       <c r="A45" s="32"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F45" s="31"/>
+      <c r="F45" s="27"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="32"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F46" s="31"/>
+      <c r="F46" s="27"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="32"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F47" s="31"/>
+      <c r="F47" s="27"/>
     </row>
     <row r="48" spans="1:6" ht="27.6">
       <c r="A48" s="32"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="F48" s="31"/>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="1:6" ht="27.6">
       <c r="A49" s="32"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F49" s="31"/>
+      <c r="F49" s="27"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="26" t="s">
         <v>240</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="27.6">
       <c r="A51" s="32"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F51" s="31"/>
+      <c r="F51" s="27"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="32"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F52" s="31"/>
+      <c r="F52" s="27"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="32"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F53" s="31"/>
+      <c r="F53" s="27"/>
     </row>
     <row r="54" spans="1:6" ht="27.6">
       <c r="A54" s="32"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F54" s="31"/>
+      <c r="F54" s="27"/>
     </row>
     <row r="55" spans="1:6" ht="27.6">
       <c r="A55" s="32"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="F55" s="31"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="26" t="s">
         <v>245</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="27.6">
       <c r="A57" s="32"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F57" s="31"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="32"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="F58" s="31"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="32"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F59" s="31"/>
+      <c r="F59" s="27"/>
     </row>
     <row r="60" spans="1:6" ht="27.6">
       <c r="A60" s="32"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="F60" s="31"/>
+      <c r="F60" s="27"/>
     </row>
     <row r="61" spans="1:6" ht="27.6">
       <c r="A61" s="32"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F61" s="31"/>
+      <c r="F61" s="27"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="26" t="s">
         <v>250</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="27.6">
       <c r="A63" s="32"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="F63" s="31"/>
+      <c r="F63" s="27"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="32"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="F64" s="31"/>
+      <c r="F64" s="27"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="32"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F65" s="31"/>
+      <c r="F65" s="27"/>
     </row>
     <row r="66" spans="1:6" ht="27.6">
       <c r="A66" s="32"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F66" s="31"/>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" spans="1:6" ht="27.6">
       <c r="A67" s="32"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="F67" s="31"/>
+      <c r="F67" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="F50:F55"/>
-    <mergeCell ref="F56:F61"/>
-    <mergeCell ref="F62:F67"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D56:D61"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
     <mergeCell ref="A62:A67"/>
     <mergeCell ref="B62:B67"/>
     <mergeCell ref="C62:C67"/>
@@ -8986,47 +9025,14 @@
     <mergeCell ref="A56:A61"/>
     <mergeCell ref="B56:B61"/>
     <mergeCell ref="C56:C61"/>
-    <mergeCell ref="D56:D61"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="F56:F61"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9036,8 +9042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E7953F-73B8-4FEC-A98D-7C21BDE211E4}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L123" sqref="L123"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9071,16 +9077,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -9091,36 +9097,36 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="19" t="s">
         <v>255</v>
       </c>
       <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="20" t="s">
         <v>256</v>
       </c>
       <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -9131,56 +9137,56 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="19" t="s">
         <v>260</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="19" t="s">
         <v>261</v>
       </c>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="19" t="s">
         <v>262</v>
       </c>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="20" t="s">
         <v>256</v>
       </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -9191,96 +9197,96 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="19" t="s">
         <v>266</v>
       </c>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="19" t="s">
         <v>267</v>
       </c>
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="19" t="s">
         <v>268</v>
       </c>
       <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6" ht="41.4">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="19" t="s">
         <v>269</v>
       </c>
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="19" t="s">
         <v>270</v>
       </c>
       <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="19" t="s">
         <v>268</v>
       </c>
       <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" ht="41.4">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="19" t="s">
         <v>271</v>
       </c>
       <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="20" t="s">
         <v>256</v>
       </c>
       <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="18" t="s">
@@ -9291,106 +9297,106 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="27.6">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="19" t="s">
         <v>275</v>
       </c>
       <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="19" t="s">
         <v>276</v>
       </c>
       <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="19" t="s">
         <v>277</v>
       </c>
       <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" ht="27.6">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="19" t="s">
         <v>278</v>
       </c>
       <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="19" t="s">
         <v>279</v>
       </c>
       <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6" ht="27.6">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="19" t="s">
         <v>280</v>
       </c>
       <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="19" t="s">
         <v>281</v>
       </c>
       <c r="F26" s="33"/>
     </row>
     <row r="27" spans="1:6" ht="41.4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="19" t="s">
         <v>282</v>
       </c>
       <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="20" t="s">
         <v>283</v>
       </c>
       <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="18" t="s">
@@ -9401,1110 +9407,1138 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="27.6">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="19" t="s">
         <v>275</v>
       </c>
       <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="19" t="s">
         <v>276</v>
       </c>
       <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="19" t="s">
         <v>286</v>
       </c>
       <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:6" ht="27.6">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="19" t="s">
         <v>287</v>
       </c>
       <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:6" ht="27.6">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="19" t="s">
         <v>278</v>
       </c>
       <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:6" ht="27.6">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="19" t="s">
         <v>288</v>
       </c>
       <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="19" t="s">
         <v>289</v>
       </c>
       <c r="F36" s="34"/>
     </row>
     <row r="37" spans="1:6" ht="27.6">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="19" t="s">
         <v>290</v>
       </c>
       <c r="F37" s="34"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="19" t="s">
         <v>291</v>
       </c>
       <c r="F38" s="34"/>
     </row>
     <row r="39" spans="1:6" ht="41.4">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="19" t="s">
         <v>292</v>
       </c>
       <c r="F39" s="34"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="19" t="s">
         <v>283</v>
       </c>
       <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:6" ht="27">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="20" t="s">
         <v>293</v>
       </c>
       <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="27" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="F43" s="31"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="1:6" ht="27.6">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="F44" s="31"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="F45" s="31"/>
+      <c r="F45" s="27"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="27" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F47" s="31"/>
+      <c r="F47" s="27"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="F48" s="31"/>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="1:6" ht="27.6">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="F49" s="31"/>
+      <c r="F49" s="27"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="F50" s="31"/>
+      <c r="F50" s="27"/>
     </row>
     <row r="51" spans="1:6" ht="27.6">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="F51" s="31"/>
+      <c r="F51" s="27"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="27" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="F53" s="31"/>
+      <c r="F53" s="27"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F54" s="31"/>
+      <c r="F54" s="27"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="F55" s="31"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="F56" s="31"/>
+      <c r="F56" s="27"/>
     </row>
     <row r="57" spans="1:6" ht="27.6">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="F57" s="31"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6" ht="27.6">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="F58" s="31"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="F59" s="31"/>
+      <c r="F59" s="27"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="27" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="F61" s="31"/>
+      <c r="F61" s="27"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F62" s="31"/>
+      <c r="F62" s="27"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="F63" s="31"/>
+      <c r="F63" s="27"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="F64" s="31"/>
+      <c r="F64" s="27"/>
     </row>
     <row r="65" spans="1:6" ht="27.6">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="F65" s="31"/>
+      <c r="F65" s="27"/>
     </row>
     <row r="66" spans="1:6" ht="27.6">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="F66" s="31"/>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="F67" s="31"/>
+      <c r="F67" s="27"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="F68" s="31" t="s">
+      <c r="F68" s="27" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="27.6">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="F69" s="31"/>
+      <c r="F69" s="27"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F70" s="31"/>
+      <c r="F70" s="27"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="F71" s="31"/>
+      <c r="F71" s="27"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="F72" s="31"/>
+      <c r="F72" s="27"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="F73" s="31"/>
+      <c r="F73" s="27"/>
     </row>
     <row r="74" spans="1:6" ht="41.4">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="F74" s="31"/>
+      <c r="F74" s="27"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="F75" s="31"/>
+      <c r="F75" s="27"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="F76" s="31"/>
+      <c r="F76" s="27"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="F77" s="31"/>
+      <c r="F77" s="27"/>
     </row>
     <row r="78" spans="1:6" ht="41.4">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="F78" s="31"/>
+      <c r="F78" s="27"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
       <c r="E79" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="F79" s="31"/>
+      <c r="F79" s="27"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F80" s="31"/>
+      <c r="F80" s="27"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="F81" s="31"/>
+      <c r="F81" s="27"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
       <c r="E82" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F82" s="31"/>
+      <c r="F82" s="27"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
       <c r="E83" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="F83" s="31"/>
+      <c r="F83" s="27"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F84" s="31"/>
+      <c r="F84" s="27"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="F85" s="31"/>
+      <c r="F85" s="27"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
       <c r="E86" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F86" s="31"/>
+      <c r="F86" s="27"/>
     </row>
     <row r="87" spans="1:6" ht="41.4">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F87" s="31"/>
+      <c r="F87" s="27"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
       <c r="E88" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="F88" s="31"/>
+      <c r="F88" s="27"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E89" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="F89" s="31" t="s">
+      <c r="F89" s="27" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
       <c r="E90" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="F90" s="31"/>
+      <c r="F90" s="27"/>
     </row>
     <row r="91" spans="1:6" ht="27.6">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
       <c r="E91" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F91" s="31"/>
+      <c r="F91" s="27"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
       <c r="E92" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="31"/>
+      <c r="F92" s="27"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="F93" s="31"/>
+      <c r="F93" s="27"/>
     </row>
     <row r="94" spans="1:6" ht="27.6">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
       <c r="E94" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="F94" s="31"/>
+      <c r="F94" s="27"/>
     </row>
     <row r="95" spans="1:6" ht="27.6">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
       <c r="E95" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="F95" s="31"/>
+      <c r="F95" s="27"/>
     </row>
     <row r="96" spans="1:6" ht="27.6">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
       <c r="E96" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="F96" s="31"/>
+      <c r="F96" s="27"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
       <c r="E97" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="F97" s="31"/>
+      <c r="F97" s="27"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
       <c r="E98" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="F98" s="31"/>
+      <c r="F98" s="27"/>
     </row>
     <row r="99" spans="1:6" ht="27.6">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
       <c r="E99" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="F99" s="31"/>
+      <c r="F99" s="27"/>
     </row>
     <row r="100" spans="1:6" ht="41.4">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
+      <c r="A100" s="26"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
       <c r="E100" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="F100" s="31"/>
+      <c r="F100" s="27"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
       <c r="E101" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F101" s="31"/>
+      <c r="F101" s="27"/>
     </row>
     <row r="102" spans="1:6" ht="27">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="F102" s="31"/>
+      <c r="F102" s="27"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="D103" s="25" t="s">
+      <c r="D103" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="F103" s="31" t="s">
+      <c r="F103" s="27" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
       <c r="E104" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="F104" s="31"/>
+      <c r="F104" s="27"/>
     </row>
     <row r="105" spans="1:6" ht="27.6">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
       <c r="E105" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F105" s="31"/>
+      <c r="F105" s="27"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
       <c r="E106" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F106" s="31"/>
+      <c r="F106" s="27"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
       <c r="E107" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="F107" s="31"/>
+      <c r="F107" s="27"/>
     </row>
     <row r="108" spans="1:6" ht="27.6">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
       <c r="E108" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="F108" s="31"/>
+      <c r="F108" s="27"/>
     </row>
     <row r="109" spans="1:6" ht="27.6">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
       <c r="E109" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="F109" s="31"/>
+      <c r="F109" s="27"/>
     </row>
     <row r="110" spans="1:6" ht="27.6">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
       <c r="E110" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="F110" s="31"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
       <c r="E111" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="27"/>
     </row>
     <row r="112" spans="1:6" ht="27.6">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
       <c r="E112" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="F112" s="31"/>
+      <c r="F112" s="27"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="B113" s="25" t="s">
+      <c r="B113" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E113" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="F113" s="31" t="s">
+      <c r="F113" s="27" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
       <c r="E114" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F114" s="31"/>
+      <c r="F114" s="27"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
       <c r="E115" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="F115" s="31"/>
+      <c r="F115" s="27"/>
     </row>
     <row r="116" spans="1:6" ht="27.6">
-      <c r="A116" s="25"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
       <c r="E116" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="F116" s="31"/>
+      <c r="F116" s="27"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
       <c r="E117" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="F117" s="31"/>
+      <c r="F117" s="27"/>
     </row>
     <row r="118" spans="1:6" ht="27.6">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
       <c r="E118" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="F118" s="31"/>
+      <c r="F118" s="27"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
+      <c r="A119" s="26"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
       <c r="E119" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="F119" s="31"/>
+      <c r="F119" s="27"/>
     </row>
     <row r="120" spans="1:6" ht="27.6">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
+      <c r="A120" s="26"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
       <c r="E120" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="F120" s="31"/>
+      <c r="F120" s="27"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
       <c r="E121" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="F121" s="31"/>
+      <c r="F121" s="27"/>
     </row>
     <row r="122" spans="1:6" ht="27.6">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
       <c r="E122" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="F122" s="31"/>
+      <c r="F122" s="27"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="25"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
       <c r="E123" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="F123" s="31"/>
+      <c r="F123" s="27"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="B124" s="25" t="s">
+      <c r="B124" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="C124" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="D124" s="25" t="s">
+      <c r="D124" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E124" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="F124" s="31" t="s">
+      <c r="F124" s="27" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
       <c r="E125" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="F125" s="31"/>
+      <c r="F125" s="27"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
       <c r="E126" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="F126" s="31"/>
+      <c r="F126" s="27"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="25"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
+      <c r="A127" s="26"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
       <c r="E127" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="F127" s="31"/>
+      <c r="F127" s="27"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
       <c r="E128" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="F128" s="31"/>
+      <c r="F128" s="27"/>
     </row>
     <row r="129" spans="1:6" ht="27.6">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
       <c r="E129" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="F129" s="31"/>
+      <c r="F129" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="F113:F123"/>
-    <mergeCell ref="F124:F129"/>
-    <mergeCell ref="F46:F51"/>
-    <mergeCell ref="F52:F59"/>
-    <mergeCell ref="F60:F67"/>
-    <mergeCell ref="F68:F88"/>
-    <mergeCell ref="F89:F102"/>
-    <mergeCell ref="F103:F112"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F10:F18"/>
-    <mergeCell ref="F19:F28"/>
-    <mergeCell ref="F29:F41"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="D19:D28"/>
+    <mergeCell ref="A29:A41"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="C29:C41"/>
+    <mergeCell ref="D29:D41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="A124:A129"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="D124:D129"/>
+    <mergeCell ref="A89:A102"/>
+    <mergeCell ref="B89:B102"/>
+    <mergeCell ref="C89:C102"/>
+    <mergeCell ref="D89:D102"/>
+    <mergeCell ref="A103:A112"/>
+    <mergeCell ref="B103:B112"/>
+    <mergeCell ref="C103:C112"/>
+    <mergeCell ref="D103:D112"/>
     <mergeCell ref="F42:F45"/>
     <mergeCell ref="A113:A123"/>
     <mergeCell ref="B113:B123"/>
@@ -10521,47 +10555,19 @@
     <mergeCell ref="A46:A51"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="C46:C51"/>
-    <mergeCell ref="A124:A129"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="D124:D129"/>
-    <mergeCell ref="A89:A102"/>
-    <mergeCell ref="B89:B102"/>
-    <mergeCell ref="C89:C102"/>
-    <mergeCell ref="D89:D102"/>
-    <mergeCell ref="A103:A112"/>
-    <mergeCell ref="B103:B112"/>
-    <mergeCell ref="C103:C112"/>
-    <mergeCell ref="D103:D112"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="A29:A41"/>
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="C29:C41"/>
-    <mergeCell ref="D29:D41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="D19:D28"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F10:F18"/>
+    <mergeCell ref="F19:F28"/>
+    <mergeCell ref="F29:F41"/>
+    <mergeCell ref="F113:F123"/>
+    <mergeCell ref="F124:F129"/>
+    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="F52:F59"/>
+    <mergeCell ref="F60:F67"/>
+    <mergeCell ref="F68:F88"/>
+    <mergeCell ref="F89:F102"/>
+    <mergeCell ref="F103:F112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10571,8 +10577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED106F5-4799-4441-8424-39E2928B8448}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -10607,7 +10613,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="218.25" customHeight="1">
-      <c r="A2" s="6"/>
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -10625,7 +10633,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="110.4">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -10643,7 +10653,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="99.75" customHeight="1">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -10661,7 +10673,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="82.8">
-      <c r="A5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -10679,7 +10693,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="88.5" customHeight="1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
@@ -10697,7 +10713,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="41.4">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
@@ -10715,7 +10733,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="41.4">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
@@ -10733,7 +10753,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="41.4">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -10751,7 +10773,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="41.4">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -10769,7 +10793,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="41.4">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -10787,7 +10813,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="96.6">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
@@ -10805,7 +10833,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="96.6">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
@@ -10823,7 +10853,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="82.8">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
@@ -10841,7 +10873,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="110.4">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
@@ -10859,7 +10893,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="55.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
@@ -10893,6 +10929,7 @@
       <c r="F18" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>